--- a/Evaluation/Evaluation.xlsx
+++ b/Evaluation/Evaluation.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Sentence Stats" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Matrix!$A$1:$U$20</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="25">
   <si>
     <t>The Guardian</t>
   </si>
@@ -96,6 +97,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Not in</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Not In</t>
   </si>
 </sst>
 </file>
@@ -192,7 +202,97 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -260,6 +360,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1327,6 +1437,1100 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>22.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="43130512"/>
+        <c:axId val="43180160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43130512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43180160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43180160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43130512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>22.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="7429648"/>
+        <c:axId val="46586352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="7429648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46586352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46586352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7429648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1447,6 +2651,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -2892,6 +4176,1027 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3011,6 +5316,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3284,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AP1" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="53" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3"/>
+    <sheetView showRuler="0" topLeftCell="AP1" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="53" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3611,8 +5981,8 @@
         <v>1</v>
       </c>
       <c r="AQ2" s="6">
-        <f>AVERAGE(X2:AP2)</f>
-        <v>7.2</v>
+        <f>SUM(X2:AP2)</f>
+        <v>108</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>3</v>
@@ -3690,8 +6060,8 @@
         <v>56</v>
       </c>
       <c r="BM2" s="6">
-        <f>AVERAGE(AT2:BL2)</f>
-        <v>265.95933333333335</v>
+        <f>SUM(AT2:BL2)/AQ2</f>
+        <v>36.938796296296296</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -3820,8 +6190,8 @@
         <v>21</v>
       </c>
       <c r="AQ3" s="6">
-        <f t="shared" ref="AQ3:AQ20" si="12">AVERAGE(X3:AP3)</f>
-        <v>4.4545454545454541</v>
+        <f t="shared" ref="AQ3:AQ20" si="12">SUM(X3:AP3)</f>
+        <v>49</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>8</v>
@@ -3830,9 +6200,8 @@
         <f t="shared" ref="AT3:BB20" si="13">B3*X3</f>
         <v>117.4</v>
       </c>
-      <c r="AU3" s="7" t="e">
-        <f t="shared" ref="AU3" si="14">C3*Y3</f>
-        <v>#VALUE!</v>
+      <c r="AU3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AV3" s="7">
         <f t="shared" si="0"/>
@@ -3842,21 +6211,18 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="AX3" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY3" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AX3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AZ3" s="7">
         <f t="shared" si="0"/>
         <v>187.5</v>
       </c>
-      <c r="BA3" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="BA3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BB3" s="7">
         <f t="shared" si="0"/>
@@ -3870,9 +6236,8 @@
         <f t="shared" si="2"/>
         <v>33.299999999999997</v>
       </c>
-      <c r="BE3" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="BE3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BF3" s="7">
         <f t="shared" si="4"/>
@@ -3882,9 +6247,8 @@
         <f t="shared" si="5"/>
         <v>108.60000000000001</v>
       </c>
-      <c r="BH3" s="7" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="BH3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BI3" s="7">
         <f t="shared" si="7"/>
@@ -3894,17 +6258,15 @@
         <f t="shared" si="8"/>
         <v>14.3</v>
       </c>
-      <c r="BK3" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL3" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM3" s="6" t="e">
-        <f t="shared" ref="BM3:BM20" si="15">AVERAGE(AT3:BL3)</f>
-        <v>#VALUE!</v>
+      <c r="BK3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM3" s="6">
+        <f t="shared" ref="BM3:BM20" si="14">SUM(AT3:BL3)/AQ3</f>
+        <v>60.475510204081637</v>
       </c>
     </row>
     <row r="4" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4034,7 +6396,7 @@
       </c>
       <c r="AQ4" s="6">
         <f t="shared" si="12"/>
-        <v>4.7857142857142856</v>
+        <v>67</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>7</v>
@@ -4047,9 +6409,8 @@
         <f t="shared" si="13"/>
         <v>118.19999999999999</v>
       </c>
-      <c r="AV4" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AV4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AW4" s="7">
         <f t="shared" si="0"/>
@@ -4063,17 +6424,14 @@
         <f t="shared" si="0"/>
         <v>561</v>
       </c>
-      <c r="AZ4" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA4" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB4" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AZ4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC4" s="7">
         <f t="shared" si="1"/>
@@ -4099,9 +6457,8 @@
         <f t="shared" si="6"/>
         <v>319.79999999999995</v>
       </c>
-      <c r="BI4" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="BI4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BJ4" s="7">
         <f t="shared" si="8"/>
@@ -4115,9 +6472,9 @@
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="BM4" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM4" s="6">
+        <f t="shared" si="14"/>
+        <v>55.408955223880604</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4247,7 +6604,7 @@
       </c>
       <c r="AQ5" s="6">
         <f t="shared" si="12"/>
-        <v>6.875</v>
+        <v>110</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>9</v>
@@ -4264,9 +6621,8 @@
         <f t="shared" si="0"/>
         <v>176.10000000000002</v>
       </c>
-      <c r="AW5" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AW5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AX5" s="7">
         <f t="shared" si="0"/>
@@ -4276,17 +6632,15 @@
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="AZ5" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AZ5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BA5" s="7">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="BB5" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="BB5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC5" s="7">
         <f t="shared" si="1"/>
@@ -4328,9 +6682,9 @@
         <f t="shared" si="10"/>
         <v>71.430000000000007</v>
       </c>
-      <c r="BM5" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM5" s="6">
+        <f t="shared" si="14"/>
+        <v>47.849636363636364</v>
       </c>
     </row>
     <row r="6" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4460,7 +6814,7 @@
       </c>
       <c r="AQ6" s="6">
         <f t="shared" si="12"/>
-        <v>12.923076923076923</v>
+        <v>168</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>10</v>
@@ -4469,9 +6823,8 @@
         <f t="shared" si="13"/>
         <v>185.7</v>
       </c>
-      <c r="AU6" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AU6" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AV6" s="7">
         <f t="shared" si="0"/>
@@ -4481,25 +6834,21 @@
         <f t="shared" si="0"/>
         <v>167.67</v>
       </c>
-      <c r="AX6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AX6" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AY6" s="7">
         <f t="shared" si="0"/>
         <v>454.6</v>
       </c>
-      <c r="AZ6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AZ6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC6" s="7">
         <f t="shared" si="1"/>
@@ -4537,13 +6886,12 @@
         <f t="shared" si="9"/>
         <v>402.2</v>
       </c>
-      <c r="BL6" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM6" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BL6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM6" s="6">
+        <f t="shared" si="14"/>
+        <v>43.480297619047619</v>
       </c>
     </row>
     <row r="7" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4673,7 +7021,7 @@
       </c>
       <c r="AQ7" s="6">
         <f t="shared" si="12"/>
-        <v>11.857142857142858</v>
+        <v>166</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>11</v>
@@ -4682,9 +7030,8 @@
         <f t="shared" si="13"/>
         <v>887.7</v>
       </c>
-      <c r="AU7" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AU7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AV7" s="7">
         <f t="shared" si="0"/>
@@ -4698,21 +7045,17 @@
         <f t="shared" si="0"/>
         <v>545.4</v>
       </c>
-      <c r="AY7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AY7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC7" s="7">
         <f t="shared" si="1"/>
@@ -4754,9 +7097,9 @@
         <f t="shared" si="10"/>
         <v>84.63</v>
       </c>
-      <c r="BM7" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM7" s="6">
+        <f t="shared" si="14"/>
+        <v>60.91993975903614</v>
       </c>
     </row>
     <row r="8" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,58 +7229,48 @@
       </c>
       <c r="AQ8" s="6">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AT8" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AT8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AU8" s="7">
         <f t="shared" si="13"/>
         <v>112.5</v>
       </c>
-      <c r="AV8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AV8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC8" s="7">
         <f t="shared" si="1"/>
         <v>411.3</v>
       </c>
-      <c r="BD8" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE8" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="BD8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BF8" s="7">
         <f t="shared" si="4"/>
@@ -4947,29 +7280,25 @@
         <f t="shared" si="5"/>
         <v>107.69999999999999</v>
       </c>
-      <c r="BH8" s="7" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="BH8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BI8" s="7">
         <f t="shared" si="7"/>
         <v>116.67</v>
       </c>
-      <c r="BJ8" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK8" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL8" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM8" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BJ8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM8" s="6">
+        <f t="shared" si="14"/>
+        <v>46.972499999999997</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5099,46 +7428,38 @@
       </c>
       <c r="AQ9" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AT9" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU9" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AT9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AW9" s="7">
         <f t="shared" si="0"/>
         <v>115.9</v>
       </c>
-      <c r="AX9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AX9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC9" s="7">
         <f t="shared" si="1"/>
@@ -5148,9 +7469,8 @@
         <f t="shared" si="2"/>
         <v>104.76</v>
       </c>
-      <c r="BE9" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="BE9" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BF9" s="7">
         <f t="shared" si="4"/>
@@ -5160,29 +7480,24 @@
         <f t="shared" si="5"/>
         <v>87.99</v>
       </c>
-      <c r="BH9" s="7" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BI9" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BJ9" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK9" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL9" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM9" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BH9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM9" s="6">
+        <f t="shared" si="14"/>
+        <v>49.428000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5312,46 +7627,38 @@
       </c>
       <c r="AQ10" s="6">
         <f t="shared" si="12"/>
-        <v>5.7142857142857144</v>
+        <v>40</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AT10" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AT10" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AU10" s="7">
         <f t="shared" si="13"/>
         <v>142.88</v>
       </c>
-      <c r="AV10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AV10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB10" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC10" s="7">
         <f t="shared" si="1"/>
@@ -5361,9 +7668,8 @@
         <f t="shared" si="2"/>
         <v>131.44</v>
       </c>
-      <c r="BE10" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="BE10" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BF10" s="7">
         <f t="shared" si="4"/>
@@ -5373,9 +7679,8 @@
         <f t="shared" si="5"/>
         <v>260.39999999999998</v>
       </c>
-      <c r="BH10" s="7" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="BH10" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BI10" s="7">
         <f t="shared" si="7"/>
@@ -5385,17 +7690,15 @@
         <f t="shared" si="8"/>
         <v>45.45</v>
       </c>
-      <c r="BK10" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL10" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM10" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BK10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM10" s="6">
+        <f t="shared" si="14"/>
+        <v>47.167999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5525,7 +7828,7 @@
       </c>
       <c r="AQ11" s="6">
         <f t="shared" si="12"/>
-        <v>10.6875</v>
+        <v>171</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>15</v>
@@ -5566,9 +7869,8 @@
         <f t="shared" si="0"/>
         <v>227.29</v>
       </c>
-      <c r="BC11" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="BC11" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BD11" s="7">
         <f t="shared" si="2"/>
@@ -5598,17 +7900,15 @@
         <f t="shared" si="8"/>
         <v>1083.42</v>
       </c>
-      <c r="BK11" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL11" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM11" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BK11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM11" s="6">
+        <f t="shared" si="14"/>
+        <v>48.224502923976608</v>
       </c>
     </row>
     <row r="12" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5738,7 +8038,7 @@
       </c>
       <c r="AQ12" s="6">
         <f t="shared" si="12"/>
-        <v>7.882352941176471</v>
+        <v>134</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>16</v>
@@ -5767,9 +8067,8 @@
         <f t="shared" si="0"/>
         <v>425.85</v>
       </c>
-      <c r="AZ12" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AZ12" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BA12" s="7">
         <f t="shared" si="0"/>
@@ -5783,9 +8082,8 @@
         <f t="shared" si="1"/>
         <v>613.9</v>
       </c>
-      <c r="BD12" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="BD12" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BE12" s="7">
         <f t="shared" si="3"/>
@@ -5819,9 +8117,9 @@
         <f t="shared" si="10"/>
         <v>50.849999999999994</v>
       </c>
-      <c r="BM12" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM12" s="6">
+        <f t="shared" si="14"/>
+        <v>49.191417910447761</v>
       </c>
     </row>
     <row r="13" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5951,7 +8249,7 @@
       </c>
       <c r="AQ13" s="6">
         <f t="shared" si="12"/>
-        <v>11.5</v>
+        <v>161</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>17</v>
@@ -5960,9 +8258,8 @@
         <f t="shared" si="13"/>
         <v>557.6</v>
       </c>
-      <c r="AU13" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AU13" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AV13" s="7">
         <f t="shared" si="0"/>
@@ -5980,17 +8277,14 @@
         <f t="shared" si="0"/>
         <v>369.95</v>
       </c>
-      <c r="AZ13" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA13" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB13" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AZ13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB13" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC13" s="7">
         <f t="shared" si="1"/>
@@ -6000,9 +8294,8 @@
         <f t="shared" si="2"/>
         <v>265.39999999999998</v>
       </c>
-      <c r="BE13" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="BE13" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BF13" s="7">
         <f t="shared" si="4"/>
@@ -6032,9 +8325,9 @@
         <f t="shared" si="10"/>
         <v>471.35</v>
       </c>
-      <c r="BM13" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM13" s="6">
+        <f t="shared" si="14"/>
+        <v>35.339068322981369</v>
       </c>
     </row>
     <row r="14" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6164,7 +8457,7 @@
       </c>
       <c r="AQ14" s="6">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>1</v>
@@ -6217,9 +8510,8 @@
         <f t="shared" si="3"/>
         <v>3230.76</v>
       </c>
-      <c r="BF14" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+      <c r="BF14" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BG14" s="7">
         <f t="shared" si="5"/>
@@ -6245,9 +8537,9 @@
         <f t="shared" si="10"/>
         <v>115.66</v>
       </c>
-      <c r="BM14" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM14" s="6">
+        <f t="shared" si="14"/>
+        <v>67.077008547008546</v>
       </c>
     </row>
     <row r="15" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6377,7 +8669,7 @@
       </c>
       <c r="AQ15" s="6">
         <f t="shared" si="12"/>
-        <v>6.5</v>
+        <v>117</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>0</v>
@@ -6434,9 +8726,8 @@
         <f t="shared" si="4"/>
         <v>432.5</v>
       </c>
-      <c r="BG15" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="BG15" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BH15" s="7">
         <f t="shared" si="6"/>
@@ -6458,9 +8749,9 @@
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="BM15" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM15" s="6">
+        <f t="shared" si="14"/>
+        <v>59.529658119658116</v>
       </c>
     </row>
     <row r="16" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6590,7 +8881,7 @@
       </c>
       <c r="AQ16" s="6">
         <f t="shared" si="12"/>
-        <v>12.307692307692308</v>
+        <v>160</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>4</v>
@@ -6599,9 +8890,8 @@
         <f t="shared" si="13"/>
         <v>1107.9000000000001</v>
       </c>
-      <c r="AU16" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AU16" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AV16" s="7">
         <f t="shared" si="0"/>
@@ -6619,17 +8909,14 @@
         <f t="shared" si="0"/>
         <v>800.25</v>
       </c>
-      <c r="AZ16" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA16" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB16" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AZ16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB16" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BC16" s="7">
         <f t="shared" si="1"/>
@@ -6651,9 +8938,8 @@
         <f t="shared" si="5"/>
         <v>421.08000000000004</v>
       </c>
-      <c r="BH16" s="7" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="BH16" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BI16" s="7">
         <f t="shared" si="7"/>
@@ -6667,13 +8953,12 @@
         <f t="shared" si="9"/>
         <v>824</v>
       </c>
-      <c r="BL16" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM16" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BL16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM16" s="6">
+        <f t="shared" si="14"/>
+        <v>41.016937499999997</v>
       </c>
     </row>
     <row r="17" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6803,7 +9088,7 @@
       </c>
       <c r="AQ17" s="6">
         <f t="shared" si="12"/>
-        <v>10.533333333333333</v>
+        <v>158</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>5</v>
@@ -6816,9 +9101,8 @@
         <f t="shared" si="13"/>
         <v>99.45</v>
       </c>
-      <c r="AV17" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="AV17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AW17" s="7">
         <f t="shared" si="0"/>
@@ -6836,9 +9120,8 @@
         <f t="shared" si="0"/>
         <v>183.32999999999998</v>
       </c>
-      <c r="BA17" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="BA17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BB17" s="7">
         <f t="shared" si="0"/>
@@ -6868,25 +9151,23 @@
         <f t="shared" si="6"/>
         <v>578.69999999999993</v>
       </c>
-      <c r="BI17" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="BI17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BJ17" s="7">
         <f t="shared" si="8"/>
         <v>469.48999999999995</v>
       </c>
-      <c r="BK17" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+      <c r="BK17" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BL17" s="7">
         <f t="shared" si="10"/>
         <v>40.630000000000003</v>
       </c>
-      <c r="BM17" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM17" s="6">
+        <f t="shared" si="14"/>
+        <v>49.928164556962024</v>
       </c>
     </row>
     <row r="18" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7016,7 +9297,7 @@
       </c>
       <c r="AQ18" s="6">
         <f t="shared" si="12"/>
-        <v>10.125</v>
+        <v>162</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>2</v>
@@ -7045,13 +9326,11 @@
         <f t="shared" si="13"/>
         <v>287.36</v>
       </c>
-      <c r="AZ18" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA18" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AZ18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA18" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BB18" s="7">
         <f t="shared" si="13"/>
@@ -7085,9 +9364,8 @@
         <f t="shared" si="7"/>
         <v>230.51</v>
       </c>
-      <c r="BJ18" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+      <c r="BJ18" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BK18" s="7">
         <f t="shared" si="9"/>
@@ -7097,9 +9375,9 @@
         <f t="shared" si="10"/>
         <v>63.16</v>
       </c>
-      <c r="BM18" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BM18" s="6">
+        <f t="shared" si="14"/>
+        <v>41.273518518518522</v>
       </c>
     </row>
     <row r="19" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7229,7 +9507,7 @@
       </c>
       <c r="AQ19" s="6">
         <f t="shared" si="12"/>
-        <v>6.0909090909090908</v>
+        <v>67</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>19</v>
@@ -7238,9 +9516,8 @@
         <f t="shared" si="13"/>
         <v>413.91</v>
       </c>
-      <c r="AU19" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AU19" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AV19" s="7">
         <f t="shared" si="13"/>
@@ -7258,21 +9535,17 @@
         <f t="shared" si="13"/>
         <v>570</v>
       </c>
-      <c r="AZ19" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA19" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB19" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC19" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="AZ19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC19" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BD19" s="7">
         <f t="shared" si="2"/>
@@ -7294,25 +9567,22 @@
         <f t="shared" si="6"/>
         <v>775.84</v>
       </c>
-      <c r="BI19" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+      <c r="BI19" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BJ19" s="7">
         <f t="shared" si="8"/>
         <v>136.84</v>
       </c>
-      <c r="BK19" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL19" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM19" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BK19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM19" s="6">
+        <f t="shared" si="14"/>
+        <v>58.678358208955224</v>
       </c>
     </row>
     <row r="20" spans="1:65" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7442,7 +9712,7 @@
       </c>
       <c r="AQ20" s="6">
         <f t="shared" si="12"/>
-        <v>2.7</v>
+        <v>27</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>18</v>
@@ -7451,9 +9721,8 @@
         <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="AU20" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AU20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AV20" s="7">
         <f t="shared" si="13"/>
@@ -7463,29 +9732,24 @@
         <f t="shared" si="13"/>
         <v>28.57</v>
       </c>
-      <c r="AX20" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AX20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="AY20" s="7">
         <f t="shared" si="13"/>
         <v>215.39999999999998</v>
       </c>
-      <c r="AZ20" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA20" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB20" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC20" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="AZ20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BD20" s="7">
         <f t="shared" si="2"/>
@@ -7503,9 +9767,8 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="BH20" s="7" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="BH20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="BI20" s="7">
         <f t="shared" si="7"/>
@@ -7515,17 +9778,15 @@
         <f t="shared" si="8"/>
         <v>132.82</v>
       </c>
-      <c r="BK20" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL20" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM20" s="6" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="BK20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM20" s="6">
+        <f t="shared" si="14"/>
+        <v>56.5</v>
       </c>
     </row>
   </sheetData>
@@ -7534,31 +9795,55 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:T20">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
-      <formula>30</formula>
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
+      <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="between">
+      <formula>60</formula>
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="between">
       <formula>30</formula>
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="between">
-      <formula>60</formula>
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>"N/A"</formula>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThan">
+      <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U20">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2:AQ20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM2:BM20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -7570,19 +9855,457 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ20">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AT2:BL20">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>"IF ISNUMBER"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BM20">
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="20" man="1"/>
+  </rowBreaks>
+  <colBreaks count="3" manualBreakCount="3">
+    <brk id="7" max="19" man="1"/>
+    <brk id="14" max="19" man="1"/>
+    <brk id="19" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>22.02</v>
+      </c>
+      <c r="C3">
+        <v>20.14</v>
+      </c>
+      <c r="D3">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="E3">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F3">
+        <f>(B3+C3)/2</f>
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>20.76</v>
+      </c>
+      <c r="C4">
+        <v>19.09</v>
+      </c>
+      <c r="D4">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E4">
+        <v>8.35</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F23" si="0">(B4+C4)/2</f>
+        <v>19.925000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>24.96</v>
+      </c>
+      <c r="C5">
+        <v>22.42</v>
+      </c>
+      <c r="D5">
+        <v>11.2</v>
+      </c>
+      <c r="E5">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>25.58</v>
+      </c>
+      <c r="C6">
+        <v>21.6</v>
+      </c>
+      <c r="D6">
+        <v>11.5</v>
+      </c>
+      <c r="E6">
+        <v>9.93</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>23.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>25.4</v>
+      </c>
+      <c r="C7">
+        <v>26.06</v>
+      </c>
+      <c r="D7">
+        <v>11.41</v>
+      </c>
+      <c r="E7">
+        <v>11.96</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>25.729999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>22.82</v>
+      </c>
+      <c r="C8">
+        <v>23.39</v>
+      </c>
+      <c r="D8">
+        <v>10.07</v>
+      </c>
+      <c r="E8">
+        <v>10.62</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>23.105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>23.14</v>
+      </c>
+      <c r="C9">
+        <v>22.92</v>
+      </c>
+      <c r="D9">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E9">
+        <v>9.41</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>24.13</v>
+      </c>
+      <c r="C10">
+        <v>17.88</v>
+      </c>
+      <c r="D10">
+        <v>10.65</v>
+      </c>
+      <c r="E10">
+        <v>8.76</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>21.004999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>25.39</v>
+      </c>
+      <c r="C11">
+        <v>23.22</v>
+      </c>
+      <c r="D11">
+        <v>10.84</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>24.305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>25.22</v>
+      </c>
+      <c r="C12">
+        <v>21.75</v>
+      </c>
+      <c r="D12">
+        <v>11.19</v>
+      </c>
+      <c r="E12">
+        <v>8.86</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>23.484999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>24.1</v>
+      </c>
+      <c r="C13">
+        <v>23.94</v>
+      </c>
+      <c r="D13">
+        <v>10.51</v>
+      </c>
+      <c r="E13">
+        <v>10.55</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>24.020000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>26.07</v>
+      </c>
+      <c r="C14">
+        <v>26.45</v>
+      </c>
+      <c r="D14">
+        <v>12.14</v>
+      </c>
+      <c r="E14">
+        <v>12.46</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>26.259999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>22.31</v>
+      </c>
+      <c r="C15">
+        <v>21.33</v>
+      </c>
+      <c r="D15">
+        <v>9.43</v>
+      </c>
+      <c r="E15">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>24.35</v>
+      </c>
+      <c r="C16">
+        <v>24.01</v>
+      </c>
+      <c r="D16">
+        <v>10.83</v>
+      </c>
+      <c r="E16">
+        <v>10.68</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>24.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>26.63</v>
+      </c>
+      <c r="C17">
+        <v>24.13</v>
+      </c>
+      <c r="D17">
+        <v>11.3</v>
+      </c>
+      <c r="E17">
+        <v>10.49</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="C18">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D18">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E18">
+        <v>8.26</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>19.454999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>22.88</v>
+      </c>
+      <c r="C19">
+        <v>22.04</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>29.3</v>
+      </c>
+      <c r="C20">
+        <v>27.26</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>22.42</v>
+      </c>
+      <c r="C21">
+        <v>27.22</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>AVERAGE(B3:B21)</f>
+        <v>24.070000000000004</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C3:C21)</f>
+        <v>22.837368421052631</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>23.453684210526319</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F3:F21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7594,16 +10317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="20" man="1"/>
-  </rowBreaks>
-  <colBreaks count="3" manualBreakCount="3">
-    <brk id="7" max="19" man="1"/>
-    <brk id="14" max="19" man="1"/>
-    <brk id="19" max="1048575" man="1"/>
-  </colBreaks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Evaluation/Evaluation.xlsx
+++ b/Evaluation/Evaluation.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Sentence Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="Article Length" sheetId="3" r:id="rId3"/>
+    <sheet name="Quotations" sheetId="4" r:id="rId4"/>
+    <sheet name="Left v Right" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Matrix!$A$1:$U$20</definedName>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="36">
   <si>
     <t>The Guardian</t>
   </si>
@@ -99,13 +102,46 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Not in</t>
+    <t>Not in the summary (full sentences)</t>
   </si>
   <si>
-    <t>In</t>
+    <t>In the summary (full sentences)</t>
   </si>
   <si>
-    <t>Not In</t>
+    <t>Not In the summary (stopwords removed)</t>
+  </si>
+  <si>
+    <t>In the summary (stopwords removed)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>In Summary</t>
+  </si>
+  <si>
+    <t>Very Left</t>
+  </si>
+  <si>
+    <t>Fairly Left</t>
+  </si>
+  <si>
+    <t>Slightly Left</t>
+  </si>
+  <si>
+    <t>Centre</t>
+  </si>
+  <si>
+    <t>Slight Right</t>
+  </si>
+  <si>
+    <t>Fairly Right</t>
+  </si>
+  <si>
+    <t>Very Right</t>
   </si>
 </sst>
 </file>
@@ -202,7 +238,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="8">
     <dxf>
       <font>
         <color auto="1"/>
@@ -280,166 +316,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -738,6 +614,796 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Article Length'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Article Length'!$D$3:$D$19,'Article Length'!$D$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>349.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>453.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>681.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>463.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>442.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>394.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>446.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>575.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>811.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>370.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>560.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>412.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>698.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Article Length'!$E$3:$E$19,'Article Length'!$E$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>27.32889054142951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.36784019423905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.88053330214608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.99309502310512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.85028517110266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.37843390467246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.48803002199887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.69473126820228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.36809482875628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.38648908694992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.31273785538393</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.69338512680685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.75671680723416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.91773953110177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.49620608646342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.35676023141204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.46554149085795</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.02324582748847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43717360"/>
+        <c:axId val="138829008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43717360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138829008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="138829008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43717360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Article Length'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Article Length'!$H$3:$H$19,'Article Length'!$H$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>150.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>243.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>304.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Article Length'!$I$3:$I$19,'Article Length'!$I$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>27.60748407643312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.66307389366774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.41447368421053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.53023637750014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.344318256417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.91024583402078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.2761863109556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.16944123949233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.78738545026366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.29014868787393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.52356557377049</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.94428011831481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.83339497801339</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.92097744986548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.98660601465757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.57082869140458</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.66681969470906</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.99112717712784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="138498032"/>
+        <c:axId val="138886320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="138498032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="375.0"/>
+          <c:min val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138886320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="138886320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="53.0"/>
+          <c:min val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138498032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1498,7 +2164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not in</c:v>
+                  <c:v>Not in the summary (full sentences)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1654,7 +2320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>In</c:v>
+                  <c:v>In the summary (full sentences)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2027,7 +2693,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not in</c:v>
+                  <c:v>Not in the summary (full sentences)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2186,7 +2852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>In</c:v>
+                  <c:v>In the summary (full sentences)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2531,7 +3197,2277 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not In the summary (stopwords removed)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In the summary (stopwords removed)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="98759632"/>
+        <c:axId val="98778384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98759632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98778384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98778384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98759632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not in the summary (full sentences)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>22.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In the summary (full sentences)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not In the summary (stopwords removed)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In the summary (stopwords removed)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sentence Stats'!$A$3:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>BBC News</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BBC Sport</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bloomberg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Business Insider UK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNBC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cricinfo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ESPN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FourFourTwo</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Metro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Newsweek</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reuters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Daily Mail</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Independent</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Mirror</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Telegraph</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Washington Post</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Times of India</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sentence Stats'!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="134276928"/>
+        <c:axId val="47128976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134276928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47128976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47128976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134276928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Article Length'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Article Length'!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>349.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>453.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>681.4400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>463.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>442.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>394.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>446.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>575.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>811.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>370.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>560.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>412.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1084.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>698.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Article Length'!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>27.32889054142951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.36784019423905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.88053330214608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.99309502310512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.85028517110266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.37843390467246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.48803002199887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.69473126820228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.36809482875628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.38648908694992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.31273785538393</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.69338512680685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.75671680723416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.91773953110177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.49620608646342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.35676023141204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.46554149085795</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.18540725025367</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.02324582748847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="96327664"/>
+        <c:axId val="135835168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96327664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100.0"/>
+          <c:min val="200.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135835168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="135835168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96327664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Article Length'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Article Length'!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>150.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>243.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>483.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>304.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Article Length'!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>27.60748407643312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.66307389366774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.41447368421053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.53023637750014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.344318256417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.91024583402078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.2761863109556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.16944123949233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.78738545026366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.29014868787393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.52356557377049</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.94428011831481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.83339497801339</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.92097744986548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.98660601465757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.57082869140458</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.66681969470906</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.37006374699892</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.99112717712784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="137658272"/>
+        <c:axId val="50194352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="137658272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500.0"/>
+          <c:min val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50194352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50194352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="53.0"/>
+          <c:min val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137658272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2731,6 +5667,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -3200,8 +6296,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3228,8 +6324,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3330,7 +6426,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3362,10 +6458,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3405,22 +6501,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3525,8 +6622,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3658,19 +6755,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3684,6 +6782,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3703,8 +6812,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3731,8 +6840,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3833,7 +6942,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3865,10 +6974,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4189,6 +7298,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4208,8 +7328,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4413,23 +7533,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4534,8 +7653,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4667,20 +7786,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4713,8 +7831,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4822,11 +7940,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4837,11 +7950,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4873,9 +7981,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4931,6 +8036,1029 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -5210,6 +9338,2070 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5386,6 +11578,191 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>958850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1300893</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1147577</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135923</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1861523</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60641</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10069</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624703</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158808</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2124676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>230202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186496</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5654,8 +12031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="AP1" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="53" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showRuler="0" topLeftCell="BJ1" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="53" workbookViewId="0">
+      <selection activeCell="BU20" sqref="BU20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9886,13 +16263,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9906,7 +16284,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
@@ -10255,6 +16633,12 @@
       <c r="C19">
         <v>22.04</v>
       </c>
+      <c r="D19">
+        <v>9.5</v>
+      </c>
+      <c r="E19">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>22.46</v>
@@ -10270,6 +16654,12 @@
       <c r="C20">
         <v>27.26</v>
       </c>
+      <c r="D20">
+        <v>13.02</v>
+      </c>
+      <c r="E20">
+        <v>12.32</v>
+      </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>28.28</v>
@@ -10284,6 +16674,12 @@
       </c>
       <c r="C21">
         <v>27.22</v>
+      </c>
+      <c r="D21">
+        <v>9.57</v>
+      </c>
+      <c r="E21">
+        <v>11.93</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -10298,6 +16694,14 @@
       <c r="C23">
         <f>AVERAGE(C3:C21)</f>
         <v>22.837368421052631</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="1">AVERAGE(D3:D21)</f>
+        <v>10.421052631578949</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>10.156842105263157</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -10318,6 +16722,1706 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J23"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="C1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>254.08</v>
+      </c>
+      <c r="C3">
+        <v>95.55</v>
+      </c>
+      <c r="D3">
+        <f>B3+C3</f>
+        <v>349.63</v>
+      </c>
+      <c r="E3">
+        <f>(C3/D3)*100</f>
+        <v>27.328890541429512</v>
+      </c>
+      <c r="F3">
+        <v>109.11</v>
+      </c>
+      <c r="G3">
+        <v>41.61</v>
+      </c>
+      <c r="H3">
+        <f>F3+G3</f>
+        <v>150.72</v>
+      </c>
+      <c r="I3">
+        <f>(G3/H3)*100</f>
+        <v>27.607484076433121</v>
+      </c>
+      <c r="J3">
+        <f>(B3+C3)/2</f>
+        <v>174.815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>238.45</v>
+      </c>
+      <c r="C4">
+        <v>214.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D21" si="0">B4+C4</f>
+        <v>453.04999999999995</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E21" si="1">(C4/D4)*100</f>
+        <v>47.367840194239051</v>
+      </c>
+      <c r="F4">
+        <v>99.07</v>
+      </c>
+      <c r="G4">
+        <v>93.91</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H21" si="2">F4+G4</f>
+        <v>192.98</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I21" si="3">(G4/H4)*100</f>
+        <v>48.663073893667743</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J21" si="4">(B4+C4)/2</f>
+        <v>226.52499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>390.72</v>
+      </c>
+      <c r="C5">
+        <v>293.32</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>684.04</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>42.880533302146077</v>
+      </c>
+      <c r="F5">
+        <v>175.06</v>
+      </c>
+      <c r="G5">
+        <v>128.94</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>42.414473684210527</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>342.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>225.95</v>
+      </c>
+      <c r="C6">
+        <v>150.59</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>376.53999999999996</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>39.99309502310512</v>
+      </c>
+      <c r="F6">
+        <v>101.39</v>
+      </c>
+      <c r="G6">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>170.49</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>40.530236377500138</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>188.26999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>219.32</v>
+      </c>
+      <c r="C7">
+        <v>117.32</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>336.64</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>34.850285171102662</v>
+      </c>
+      <c r="F7">
+        <v>98.49</v>
+      </c>
+      <c r="G7">
+        <v>53.84</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>152.32999999999998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>35.344318256416997</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>168.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>522.13</v>
+      </c>
+      <c r="C8">
+        <v>159.31</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>681.44</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>23.378433904672459</v>
+      </c>
+      <c r="F8">
+        <v>230.59</v>
+      </c>
+      <c r="G8">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>303.05</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>23.910245834020785</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>340.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>266.66000000000003</v>
+      </c>
+      <c r="C9">
+        <v>197</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>463.66</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>42.488030021998874</v>
+      </c>
+      <c r="F9">
+        <v>101.93</v>
+      </c>
+      <c r="G9">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>182.92000000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>44.276186310955602</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>231.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>324.17</v>
+      </c>
+      <c r="C10">
+        <v>204.61</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>528.78</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>38.694731268202283</v>
+      </c>
+      <c r="F10">
+        <v>142.77000000000001</v>
+      </c>
+      <c r="G10">
+        <v>99.91</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>242.68</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>41.169441239492329</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>264.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>272.45</v>
+      </c>
+      <c r="C11">
+        <v>169.61</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>442.06</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>38.368094828756284</v>
+      </c>
+      <c r="F11">
+        <v>115.66</v>
+      </c>
+      <c r="G11">
+        <v>79.67</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>195.32999999999998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>40.787385450263656</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>221.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>219.64</v>
+      </c>
+      <c r="C12">
+        <v>175.3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>394.94</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>44.386489086949922</v>
+      </c>
+      <c r="F12">
+        <v>97.42</v>
+      </c>
+      <c r="G12">
+        <v>71.39</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>168.81</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>42.290148687873938</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>197.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>315.76</v>
+      </c>
+      <c r="C13">
+        <v>130.94</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>446.7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>29.312737855383926</v>
+      </c>
+      <c r="F13">
+        <v>137.57</v>
+      </c>
+      <c r="G13">
+        <v>57.63</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>195.2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>29.523565573770494</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>223.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>180.2</v>
+      </c>
+      <c r="C14">
+        <v>87.53</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>267.73</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>32.693385126806859</v>
+      </c>
+      <c r="F14">
+        <v>83.88</v>
+      </c>
+      <c r="G14">
+        <v>41.21</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>125.09</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>32.944280118314815</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>133.86500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>357.93</v>
+      </c>
+      <c r="C15">
+        <v>217.12</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>575.04999999999995</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>37.756716807234156</v>
+      </c>
+      <c r="F15">
+        <v>151.27000000000001</v>
+      </c>
+      <c r="G15">
+        <v>92.06</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>243.33</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>37.833394978013395</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>287.52499999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>544.5</v>
+      </c>
+      <c r="C16">
+        <v>267.19</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>811.69</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>32.917739531101773</v>
+      </c>
+      <c r="F16">
+        <v>241.84</v>
+      </c>
+      <c r="G16">
+        <v>118.69</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>360.53</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>32.920977449865482</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>405.84500000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>264.8</v>
+      </c>
+      <c r="C17">
+        <v>105.53</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>370.33000000000004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>28.49620608646342</v>
+      </c>
+      <c r="F17">
+        <v>112.4</v>
+      </c>
+      <c r="G17">
+        <v>45.88</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>158.28</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>28.986606014657568</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>185.16500000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>390.03</v>
+      </c>
+      <c r="C18">
+        <v>170.01</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>560.04</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>30.356760231412043</v>
+      </c>
+      <c r="F18">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="G18">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>233.38</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>31.570828691404579</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>280.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>290.87</v>
+      </c>
+      <c r="C19">
+        <v>121.51</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>412.38</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>29.465541490857948</v>
+      </c>
+      <c r="F19">
+        <v>120.82</v>
+      </c>
+      <c r="G19">
+        <v>53.44</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>174.26</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>30.666819694709059</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>206.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>865.27</v>
+      </c>
+      <c r="C20">
+        <v>218.83</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1084.0999999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>20.185407250253672</v>
+      </c>
+      <c r="F20">
+        <v>384.74</v>
+      </c>
+      <c r="G20">
+        <v>98.42</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>483.16</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>20.370063746998923</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>542.04999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>363.12</v>
+      </c>
+      <c r="C21">
+        <v>335.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>698.62</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>48.023245827488473</v>
+      </c>
+      <c r="F21">
+        <v>155.22</v>
+      </c>
+      <c r="G21">
+        <v>149.08000000000001</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>304.3</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>48.991127177127836</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>349.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f>AVERAGE(D3:D21)</f>
+        <v>523.02210526315787</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(E3:E21)</f>
+        <v>35.207587555242348</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J3:J21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D21 D23:E23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="117" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.156</v>
+      </c>
+      <c r="D3">
+        <f>(B3/C3)*100</f>
+        <v>7.0512820512820511</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0.156</v>
+      </c>
+      <c r="H3">
+        <f>G3*100</f>
+        <v>15.6</v>
+      </c>
+      <c r="I3">
+        <v>36.938796296296296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.128</v>
+      </c>
+      <c r="C4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D21" si="0">(B4/C4)*100</f>
+        <v>185.50724637681157</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H21" si="1">G4*100</f>
+        <v>6.9</v>
+      </c>
+      <c r="I4">
+        <v>60.475510204081637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.23</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>203.47826086956525</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0.23</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>55.408955223880604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>62.68656716417911</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+      <c r="I6">
+        <v>47.849636363636364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>20.056497175141242</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>17.7</v>
+      </c>
+      <c r="I7">
+        <v>43.480297619047619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.13</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>136.92307692307691</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>0.13</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>60.91993975903614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.57E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>111.49012567324957</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>5.57E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>5.57</v>
+      </c>
+      <c r="I9">
+        <v>46.972499999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="C10">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>403.68852459016392</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4.88</v>
+      </c>
+      <c r="I10">
+        <v>49.428000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C11">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>679.71014492753613</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+      <c r="I11">
+        <v>47.167999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>954.99999999999989</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I12">
+        <v>48.224502923976608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="I13">
+        <v>49.191417910447761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>8.0303030303030312</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>19.8</v>
+      </c>
+      <c r="I14">
+        <v>35.339068322981369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.254</v>
+      </c>
+      <c r="C15">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5521.739130434783</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="I15">
+        <v>67.077008547008546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.27</v>
+      </c>
+      <c r="C16">
+        <v>0.21</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>128.57142857142858</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.21</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>59.529658119658116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>76.42585551330798</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>26.3</v>
+      </c>
+      <c r="I17">
+        <v>41.016937499999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>120.68965517241379</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="I18">
+        <v>49.928164556962024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.15</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4.5116279069767442</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="I19">
+        <v>41.273518518518522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.32</v>
+      </c>
+      <c r="C20">
+        <v>4.7</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>6.8085106382978724</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>0.221</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>22.1</v>
+      </c>
+      <c r="I20">
+        <v>58.678358208955224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.105</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="I21">
+        <v>56.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:D21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5.5</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>8.5</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f>(B3*$B$2+C3*$C$2+D3*$D$2+E3*$E$2+F3*$F$2+G3*$G$2+H3*$H$2)/100</f>
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I7" si="0">(B4*$B$2+C4*$C$2+D4*$D$2+E4*$E$2+F4*$F$2+G4*$G$2+H4*$H$2)/100</f>
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>8.0549999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Evaluation/Evaluation.xlsx
+++ b/Evaluation/Evaluation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,13 @@
     <sheet name="Article Length" sheetId="3" r:id="rId3"/>
     <sheet name="Quotations" sheetId="4" r:id="rId4"/>
     <sheet name="Left v Right" sheetId="5" r:id="rId5"/>
+    <sheet name="UI Survey" sheetId="6" r:id="rId6"/>
+    <sheet name="ML Survey" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Matrix!$A$1:$U$20</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="160">
   <si>
     <t>The Guardian</t>
   </si>
@@ -143,6 +145,378 @@
   <si>
     <t>Very Right</t>
   </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>On a scale from 1 to 10, with 1 being very poor and 10 being very good, how would you rate the labelling of this article?</t>
+  </si>
+  <si>
+    <t>Are there any labels that you feel this is missing? Be as specific or as vague as you'd like</t>
+  </si>
+  <si>
+    <t>Are there any labels in this list that definitely shouldn't be present?</t>
+  </si>
+  <si>
+    <t>Do you have any further comments to make on the Labelling shown in this survey?</t>
+  </si>
+  <si>
+    <t>On a scale of 1 to 5, with 1 being very inappropriate, and 5 being very appropriate, how would you rate this cluster?</t>
+  </si>
+  <si>
+    <t>Please give a reason for your score above (optional)</t>
+  </si>
+  <si>
+    <t>Do you have any further comments on the Clustering shown in this survey?</t>
+  </si>
+  <si>
+    <t>On a scale of 1 to 10, where 1 entails a poor summary, and 10 a very good one, how would you rate the summary above?</t>
+  </si>
+  <si>
+    <t>Please give a reason for the above answer (Optional)</t>
+  </si>
+  <si>
+    <t>Open-Ended Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manifesto, U-turn, £100000, </t>
+  </si>
+  <si>
+    <t>vote, leave, European Union, Wold Index, Stoxx 600, S&amp;P500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both seem to be related, US politics, and both seem to refer to the same event, US 2016 elections. </t>
+  </si>
+  <si>
+    <t>Ideally I'd rate that as a 1, since it's all about Manchester United and not Arsenal, however I must admit that the clustering works, again, everything is spot on, football, Manchester United :(, same kind of event or follow up</t>
+  </si>
+  <si>
+    <t>See 14</t>
+  </si>
+  <si>
+    <t>It looks way better than labelling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifesto </t>
+  </si>
+  <si>
+    <t>Doncaster Deaf Trust</t>
+  </si>
+  <si>
+    <t>The Tonight Show Starring Johnny Carson, James Sinclair, You're invited to Mary-Kate and Ashley's (film series), Party lists in the New Zealand general election, (2002), Football in Malta. Maltese dog</t>
+  </si>
+  <si>
+    <t>Fish market</t>
+  </si>
+  <si>
+    <t>Majority of the titles were addressed in the summary</t>
+  </si>
+  <si>
+    <t>Covers each title in the summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John oliver, nick clegg, may queen, Elizabeth may, Jeremy corbyn, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay Leno, Oprah Winfrey, Chelsea handler, peep show, Johnny Carson, James sinclair, film series, Maltese dog, general election </t>
+  </si>
+  <si>
+    <t>Fish markets</t>
+  </si>
+  <si>
+    <t>Although they're both politics related, they don't appear to match with the policy mentioned above in the football example</t>
+  </si>
+  <si>
+    <t>All related specifically to player of the year awards</t>
+  </si>
+  <si>
+    <t>U turn', 'overall cap' - i.e. specifics of content of article</t>
+  </si>
+  <si>
+    <t>Neonatal intensive care unit, 'yesterday', 'Elizabeth May', 'May Queen'</t>
+  </si>
+  <si>
+    <t>Very few notions of Flower show, London, weird quarry winning design,etc</t>
+  </si>
+  <si>
+    <t>Labels involving Malta are incorrect, football players,etc.</t>
+  </si>
+  <si>
+    <t>Notions of uncertainty, due to trump, chinese devaluation - those are the higher level features of this article</t>
+  </si>
+  <si>
+    <t>Fish market, Haven?</t>
+  </si>
+  <si>
+    <t>Talking about different things i believe</t>
+  </si>
+  <si>
+    <t>Man Utd palyer of the year awards articles - all relevant</t>
+  </si>
+  <si>
+    <t>All about one specific uber news item</t>
+  </si>
+  <si>
+    <t>The summary is specifically talking about tributes for the victims, while I don't think all the articles focus on this side of the incident.</t>
+  </si>
+  <si>
+    <t>Information wise, looks like all bases covered. Structure though is lacking - starts off talking about weather, then going back to describe who is actually getting married</t>
+  </si>
+  <si>
+    <t>Elizabeth May, May Queen, Neonatal intensive care unit, Wales, Thursday</t>
+  </si>
+  <si>
+    <t>Languages of Malta, Maltese, Italian Maltese, Maltese people, general election, Oprah Winfrey, Football.... Too many labels</t>
+  </si>
+  <si>
+    <t>Fish market, Time in China</t>
+  </si>
+  <si>
+    <t>A lot of the labels are kind of irrelevant</t>
+  </si>
+  <si>
+    <t>"Liberal Democrats", "General Election 2017"</t>
+  </si>
+  <si>
+    <t>"May", "May Queen", "Elizabeth May", "United Kingdom general election, 2005", "United Kingdom general election, 2010", "United Kingdom general election, 1997", "may ministry", "Last Week Tonight with John Oliver", "Neonatal intensive care unit"</t>
+  </si>
+  <si>
+    <t>"Flowers", "Garden"</t>
+  </si>
+  <si>
+    <t>"The Daily Show", "Canada", "The Tonight Show with Jay Leno", "The Oprah Winfrey Show", "Chelsea Handler", "Peep show", "The Tonight Show Starring Johnny Carson", "You're Invited to Mary-Kate &amp; Ashley's (film series)", 'Party lists in the New Zealand general election, 2002", "The House Always Wins", "Football in Malta", "Maltese (dog)", "Languages of Malta", "Callow Rock quarry", "Broadcroft Quarry", "James Sinclair (footballer)", "Wouter Basson"</t>
+  </si>
+  <si>
+    <t>"Investment", Standard &amp; Poor", "Stoxx Europe"</t>
+  </si>
+  <si>
+    <t>"Time zone", "Time in China", "Pacific Time Zone", "Fish market", "Day"</t>
+  </si>
+  <si>
+    <t>Some of the labels are too generic, like "Day" and "Tuesday"</t>
+  </si>
+  <si>
+    <t>Both articles are in the field of current American politics but are about very different parties and stories.</t>
+  </si>
+  <si>
+    <t>All the stories are about the same specific event.</t>
+  </si>
+  <si>
+    <t>It generally works very well as the articles are all current and discuss the same topic</t>
+  </si>
+  <si>
+    <t>It's grammatically correct and flows well, though it ends abruptly.</t>
+  </si>
+  <si>
+    <t>The article flows well and is grammatically correct, but it ends on an incomplete sentence and no conclusion.</t>
+  </si>
+  <si>
+    <t>Grammatically correct, article flows well and is completely relevant, and the ending wraps up the story well.</t>
+  </si>
+  <si>
+    <t>Dementia Tax</t>
+  </si>
+  <si>
+    <t>May Queen, Elizabeth May, Neonatal intensive care unit</t>
+  </si>
+  <si>
+    <t>Chelsea Flower Show</t>
+  </si>
+  <si>
+    <t>The Daily Show, The Tonight Show with Jay Leno,The Oprah Winfrey Show, Chelsea Handler, Peep show, The Tonight Show starring Johnny Carson, Wouter Basson, James Sinclair (footballer), You're Invited to Mary-Kate &amp; Ashely's (film series), Party lists in the New Zealand general election, 2002, The House Always Wins, Maltese (dog)</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Time zone, Time in China, Pacific TIme Zone, Fish market, Day, Haven</t>
+  </si>
+  <si>
+    <t>Generally impressive. Can be overenthusiastic</t>
+  </si>
+  <si>
+    <t>Different story.</t>
+  </si>
+  <si>
+    <t>The appeal seems separate, but related to, the threat to fire.</t>
+  </si>
+  <si>
+    <t>Too many celeb tweets</t>
+  </si>
+  <si>
+    <t>Some repetition of phrases.</t>
+  </si>
+  <si>
+    <t>Most natural flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom General Election 2017 </t>
+  </si>
+  <si>
+    <t>Last week tonight with John Oliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chelsea Flower Show, Best in Show, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The daily show, Mediterranean sea, The Oprah Winfrey Show, Languages of Malta, Party lists in NZ, Mary Kate &amp; Ashley, The House always wins, Football in Malta, Maltese language . . . </t>
+  </si>
+  <si>
+    <t>Dollar, Yen, S&amp;P, Stoxx . . .</t>
+  </si>
+  <si>
+    <t>Pacific time zone</t>
+  </si>
+  <si>
+    <t>No relevance between the two articles</t>
+  </si>
+  <si>
+    <t>All articles/summaries appear to be well related</t>
+  </si>
+  <si>
+    <t>Assuming the key news piece is the arbitration ruling appeal, then all the articles are not relevant; alternatively if key news piece is the threat to fire engineers because of trade secret spats then the first article is not related.</t>
+  </si>
+  <si>
+    <t>All seem related to 22nds horror</t>
+  </si>
+  <si>
+    <t>General election 2017</t>
+  </si>
+  <si>
+    <t>Yes: May Queen, the past elections, neonatal ICU, day care</t>
+  </si>
+  <si>
+    <t>Chelsea flower show</t>
+  </si>
+  <si>
+    <t>All the TV shows, Maltese football, Maltese dog</t>
+  </si>
+  <si>
+    <t>World market, United States</t>
+  </si>
+  <si>
+    <t>Time zone</t>
+  </si>
+  <si>
+    <t>Both have links to the 2016 election, but not necessarily of the same exact event.</t>
+  </si>
+  <si>
+    <t>Clearly about ManU's Player of the Year</t>
+  </si>
+  <si>
+    <t>Clearly about Uber's legal disputes</t>
+  </si>
+  <si>
+    <t>All about the Manchester attack</t>
+  </si>
+  <si>
+    <t>Reads coherently, but the content is back to front (starts with celebrity reactions, ends with telling what happened)</t>
+  </si>
+  <si>
+    <t>A good read</t>
+  </si>
+  <si>
+    <t>Makes sense</t>
+  </si>
+  <si>
+    <t>Manifesto</t>
+  </si>
+  <si>
+    <t>U.K. Election 97, neo natal care</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Football in Malta,James Sinclair,party lists of nz,johnny Carson, peep show </t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Social care, funding cap</t>
+  </si>
+  <si>
+    <t>May Queen, Elizabeth May, Last week tonight with John Oliver, neo natal intensive care unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the labels are irrelevant </t>
+  </si>
+  <si>
+    <t>Market uncertainty, Trump uncertainty, Global stock markets</t>
+  </si>
+  <si>
+    <t>Time zone, Pacific time zone, fish market</t>
+  </si>
+  <si>
+    <t>The first seems marginally better than the third; the second is the worst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No link between the articles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All articles linked to same topic </t>
+  </si>
+  <si>
+    <t>The first headline is a little vague but all articles linked to the same topic</t>
+  </si>
+  <si>
+    <t>All articles closely linked to same topic</t>
+  </si>
+  <si>
+    <t>Apart from the first one all the others seem good</t>
+  </si>
+  <si>
+    <t>Good summary - are all the tweets necessary in the summary - can it not refer to who all tweeted instead and summarise the gist of their tweets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This looks like a summary of each individual article rather than an overall summary. Pretty disjointed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seems like a good joined together summary. The references to rain are repeated - can this be avoided </t>
+  </si>
+  <si>
+    <t>Social Care, Funding</t>
+  </si>
+  <si>
+    <t>May Queen, Elizabeth May, Thursday, Last Week Tonight With John Oliver, Neonatal Intensive Care Unit, United Kingdom General Election 1997/2005/2010</t>
+  </si>
+  <si>
+    <t>Chelsea Flower Show, Gardening/Horticulture</t>
+  </si>
+  <si>
+    <t>The Daily Show, Helen, Canada, The Tonight Show Starring Johnny Carson, Northern Ontario, The Tonight Show with Jay Leno, Tuesday, The Oprah Winfrey Show, Chelsea Handler, Peep Show, Wouter Basson, James Sinclair (footballer), You're Invited to Mary-Kate and Ashley's (film series), Party Lists in the New Zealand General Election 2002, The House Always Wins, Football in Malta, Italian Maltese, Maltese (dog), Callow Rock quarry, Broadcroft Quarry</t>
+  </si>
+  <si>
+    <t>FBI, China, S&amp;P 500 (etc), Russia</t>
+  </si>
+  <si>
+    <t>Time Zone, Time in China, Fish Market, Day</t>
+  </si>
+  <si>
+    <t>Comes up with some unique labels, including references to unmentioned TV shows. May also need to filter out Christian names and days of the week. However labels do cover the article topic.</t>
+  </si>
+  <si>
+    <t>About People involved in the US 2016 elections however one article happened before the election and another happened after the election. Quite a large time gap.</t>
+  </si>
+  <si>
+    <t>Great selection of clustered articles all regarding the same event in the same year. Titles very similar - good sign.</t>
+  </si>
+  <si>
+    <t>Same as before - great clustering regarding same lawsuit. Would note that the first article may have been updated and the title provided is not the title shown on the Reuters website.</t>
+  </si>
+  <si>
+    <t>Well clustered</t>
+  </si>
+  <si>
+    <t>All examples except the first show very good clustering.</t>
+  </si>
+  <si>
+    <t>Article cut off at end ;( Also relatively lengthy.</t>
+  </si>
+  <si>
+    <t>Not in the summary (stopwords removed)</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +607,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +858,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -492,11 +866,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="81"/>
-        <c:axId val="579584"/>
-        <c:axId val="6168080"/>
+        <c:axId val="-1903017472"/>
+        <c:axId val="-1903015152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="579584"/>
+        <c:axId val="-1903017472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,11 +894,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -536,7 +910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6168080"/>
+        <c:crossAx val="-1903015152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -544,7 +918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6168080"/>
+        <c:axId val="-1903015152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +953,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -591,7 +965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579584"/>
+        <c:crossAx val="-1903017472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -612,9 +986,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -724,6 +1096,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>('Article Length'!$D$3:$D$19,'Article Length'!$D$21)</c:f>
@@ -860,11 +1246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43717360"/>
-        <c:axId val="138829008"/>
+        <c:axId val="-1903652480"/>
+        <c:axId val="-1903650160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43717360"/>
+        <c:axId val="-1903652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,12 +1306,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138829008"/>
+        <c:crossAx val="-1903650160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138829008"/>
+        <c:axId val="-1903650160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +1367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43717360"/>
+        <c:crossAx val="-1903652480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1253,11 +1639,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138498032"/>
-        <c:axId val="138886320"/>
+        <c:axId val="-1903625552"/>
+        <c:axId val="-1903623504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138498032"/>
+        <c:axId val="-1903625552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="375.0"/>
@@ -1315,12 +1701,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138886320"/>
+        <c:crossAx val="-1903623504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138886320"/>
+        <c:axId val="-1903623504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="53.0"/>
@@ -1378,7 +1764,1003 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138498032"/>
+        <c:crossAx val="-1903625552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Article Length'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Article Length'!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>150.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>243.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>483.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>304.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Article Length'!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>27.60748407643312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.66307389366774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.41447368421053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.53023637750014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.344318256417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.91024583402078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.2761863109556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.16944123949233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.78738545026366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.29014868787393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.52356557377049</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.94428011831481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.83339497801339</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.92097744986548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.98660601465757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.57082869140458</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.66681969470906</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.37006374699892</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.99112717712784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1837280416"/>
+        <c:axId val="-1872332800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1837280416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500.0"/>
+          <c:min val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Average number of words</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> per article</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1872332800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1872332800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="53.0"/>
+          <c:min val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Average Percentage of Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> Words in Summary</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1837280416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Quotations!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Quotations!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>36.9387962962963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.47551020408163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.4089552238806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.84963636363636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.48029761904762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.91993975903614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.9725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.2245029239766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.19141791044776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.33906832298137</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.07700854700855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.52965811965812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.0169375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.92816455696202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.27351851851852</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.67835820895522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1982082848"/>
+        <c:axId val="-1982080528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1982082848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="28.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Percentage of Original Article made up of quotes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1982080528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1982080528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1982082848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1441,40 +2823,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.188256723017694"/>
+          <c:y val="0.0305872127688367"/>
+          <c:w val="0.785679436033832"/>
+          <c:h val="0.86244695594764"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1495,7 +2856,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1613,12 +2974,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="92482784"/>
-        <c:axId val="92617344"/>
+        <c:gapWidth val="81"/>
+        <c:axId val="-1903779520"/>
+        <c:axId val="-1903770992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92482784"/>
+        <c:axId val="-1903779520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +3007,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1661,7 +3022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92617344"/>
+        <c:crossAx val="-1903770992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1669,7 +3030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92617344"/>
+        <c:axId val="-1903770992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +3065,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1719,9 +3080,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92482784"/>
+        <c:crossAx val="-1903779520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1740,12 +3102,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1949,11 +3306,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="46908720"/>
-        <c:axId val="46585136"/>
+        <c:axId val="-1980324768"/>
+        <c:axId val="-1980322448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46908720"/>
+        <c:axId val="-1980324768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +3353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46585136"/>
+        <c:crossAx val="-1980322448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2004,7 +3361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46585136"/>
+        <c:axId val="-1980322448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,7 +3411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46908720"/>
+        <c:crossAx val="-1980324768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2477,11 +3834,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="43130512"/>
-        <c:axId val="43180160"/>
+        <c:axId val="-1902981552"/>
+        <c:axId val="-1902978800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43130512"/>
+        <c:axId val="-1902981552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +3881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43180160"/>
+        <c:crossAx val="-1902978800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +3889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43180160"/>
+        <c:axId val="-1902978800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,7 +3940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43130512"/>
+        <c:crossAx val="-1902981552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3011,11 +4368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="7429648"/>
-        <c:axId val="46586352"/>
+        <c:axId val="-1982160480"/>
+        <c:axId val="-1982158160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7429648"/>
+        <c:axId val="-1982160480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +4396,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3058,7 +4415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46586352"/>
+        <c:crossAx val="-1982158160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3066,7 +4423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46586352"/>
+        <c:axId val="-1982158160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,7 +4473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7429648"/>
+        <c:crossAx val="-1982160480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3226,7 +4583,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not In the summary (stopwords removed)</c:v>
+                  <c:v>Not in the summary (stopwords removed)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3544,11 +4901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="98759632"/>
-        <c:axId val="98778384"/>
+        <c:axId val="-1903713440"/>
+        <c:axId val="-1903711392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98759632"/>
+        <c:axId val="-1903713440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,7 +4929,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3591,7 +4948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98778384"/>
+        <c:crossAx val="-1903711392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3599,7 +4956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98778384"/>
+        <c:axId val="-1903711392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +5006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98759632"/>
+        <c:crossAx val="-1903713440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4077,7 +5434,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not In the summary (stopwords removed)</c:v>
+                  <c:v>Not in the summary (stopwords removed)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4395,11 +5752,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="134276928"/>
-        <c:axId val="47128976"/>
+        <c:axId val="-1980257216"/>
+        <c:axId val="-1980254656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134276928"/>
+        <c:axId val="-1980257216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,7 +5784,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4442,7 +5799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47128976"/>
+        <c:crossAx val="-1980254656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4450,7 +5807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47128976"/>
+        <c:axId val="-1980254656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,6 +5827,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Words</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0101781170483461"/>
+              <c:y val="0.334771472531451"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4485,7 +5905,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4500,7 +5920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134276928"/>
+        <c:crossAx val="-1980257216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4528,7 +5948,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4553,12 +5973,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4810,11 +6225,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96327664"/>
-        <c:axId val="135835168"/>
+        <c:axId val="-1903009584"/>
+        <c:axId val="-1903002512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96327664"/>
+        <c:axId val="-1903009584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1100.0"/>
@@ -4872,12 +6287,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135835168"/>
+        <c:crossAx val="-1903002512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135835168"/>
+        <c:axId val="-1903002512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20.0"/>
@@ -4935,7 +6350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96327664"/>
+        <c:crossAx val="-1903009584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4998,38 +6413,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5071,6 +6455,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Article Length'!$H$3:$H$21</c:f>
@@ -5213,11 +6612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137658272"/>
-        <c:axId val="50194352"/>
+        <c:axId val="-1903681776"/>
+        <c:axId val="-1903679456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137658272"/>
+        <c:axId val="-1903681776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -5239,6 +6638,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average number of words</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per article</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5260,7 +6721,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5275,12 +6736,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50194352"/>
+        <c:crossAx val="-1903679456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50194352"/>
+        <c:axId val="-1903679456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="53.0"/>
@@ -5302,6 +6763,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Percentage of Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Words in Summary</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5323,7 +6845,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5338,7 +6860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137658272"/>
+        <c:crossAx val="-1903681776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5359,12 +6881,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5468,6 +6985,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7328,6 +8925,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11426,15 +14055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>505603</xdr:colOff>
+      <xdr:colOff>505602</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95849</xdr:rowOff>
+      <xdr:rowOff>95848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215660</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95849</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1006415</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>167735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11455,16 +14084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50320</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>194092</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>185947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>958491</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>215661</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11485,16 +14114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>397774</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>42174</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>709283</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>656566</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>392981</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11610,16 +14239,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>958850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11675,16 +14304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1861523</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>150112</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>614405</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>60641</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>10069</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>720810</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11708,7 +14337,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>92905</xdr:rowOff>
+      <xdr:rowOff>183063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -11735,16 +14364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2124676</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>230202</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122423</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>186496</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>124483</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>49198</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11758,6 +14387,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>614405</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>194504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>720810</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>181690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>178016</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>119402</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>206239</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12029,10 +14723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM20"/>
+  <dimension ref="A1:BM77"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="BJ1" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="53" workbookViewId="0">
-      <selection activeCell="BU20" sqref="BU20"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="53" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12047,7 +14741,7 @@
     <col min="46" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="130" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" ht="151" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -12372,7 +15066,7 @@
         <v>82.6</v>
       </c>
       <c r="AV2" s="7">
-        <f t="shared" ref="AV2:BI17" si="0">D2*Z2</f>
+        <f t="shared" ref="AV2:BB17" si="0">D2*Z2</f>
         <v>536.9</v>
       </c>
       <c r="AW2" s="7">
@@ -12397,7 +15091,7 @@
         <v>21</v>
       </c>
       <c r="BC2" s="7">
-        <f t="shared" ref="BC2:BC20" si="1">K2*AG2</f>
+        <f t="shared" ref="BC2:BC18" si="1">K2*AG2</f>
         <v>396.99</v>
       </c>
       <c r="BD2" s="7">
@@ -12417,7 +15111,7 @@
         <v>210.4</v>
       </c>
       <c r="BH2" s="7">
-        <f t="shared" ref="BH2:BH20" si="6">P2*AL2</f>
+        <f t="shared" ref="BH2:BH19" si="6">P2*AL2</f>
         <v>391.5</v>
       </c>
       <c r="BI2" s="7">
@@ -12429,11 +15123,11 @@
         <v>327</v>
       </c>
       <c r="BK2" s="7">
-        <f t="shared" ref="BK2:BK20" si="9">S2*AO2</f>
+        <f t="shared" ref="BK2:BK18" si="9">S2*AO2</f>
         <v>286.3</v>
       </c>
       <c r="BL2" s="7">
-        <f t="shared" ref="BL2:BL20" si="10">T2*AP2</f>
+        <f t="shared" ref="BL2:BL18" si="10">T2*AP2</f>
         <v>56</v>
       </c>
       <c r="BM2" s="6">
@@ -16165,38 +18859,238 @@
         <f t="shared" si="14"/>
         <v>56.5</v>
       </c>
+    </row>
+    <row r="72" spans="3:22" ht="106" x14ac:dyDescent="0.2">
+      <c r="D72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+    </row>
+    <row r="73" spans="3:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="C73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="5">
+        <v>56.75</v>
+      </c>
+      <c r="F73" s="5">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="G73" s="5">
+        <v>59.61</v>
+      </c>
+      <c r="H73" s="5">
+        <v>69.53</v>
+      </c>
+      <c r="I73" s="6">
+        <f>AVERAGE(D73:H73)</f>
+        <v>64.22</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" spans="3:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="C74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>43.25</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="5">
+        <v>61.72</v>
+      </c>
+      <c r="G74" s="5">
+        <v>45.83</v>
+      </c>
+      <c r="H74" s="5">
+        <v>75.28</v>
+      </c>
+      <c r="I74" s="6">
+        <f ca="1">AVERAGE(D74:V74)</f>
+        <v>56.52</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" spans="3:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="C75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="5">
+        <v>29.01</v>
+      </c>
+      <c r="E75" s="5">
+        <v>38.28</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="5">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H75" s="5">
+        <v>59.92</v>
+      </c>
+      <c r="I75" s="6">
+        <f ca="1">AVERAGE(D75:V75)</f>
+        <v>40.727500000000006</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+    </row>
+    <row r="76" spans="3:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="C76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="5">
+        <v>40.39</v>
+      </c>
+      <c r="E76" s="5">
+        <v>54.17</v>
+      </c>
+      <c r="F76" s="5">
+        <v>64.3</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="5">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="I76" s="6">
+        <f ca="1">AVERAGE(D76:V76)</f>
+        <v>56.482500000000002</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" spans="3:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5">
+        <v>30.47</v>
+      </c>
+      <c r="E77" s="5">
+        <v>24.72</v>
+      </c>
+      <c r="F77" s="5">
+        <v>40.08</v>
+      </c>
+      <c r="G77" s="5">
+        <v>32.93</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="6">
+        <f ca="1">AVERAGE(D77:V77)</f>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
     </row>
   </sheetData>
   <sortState ref="B2:U2">
     <sortCondition ref="B2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:T20">
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
+  <conditionalFormatting sqref="B2:T20 U73:V77 D73:H77 J73:O77">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="between">
       <formula>60</formula>
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="31" operator="between">
       <formula>30</formula>
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="32" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U20">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2:AQ20">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -16208,20 +19102,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ20">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BM2:BM20">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16233,7 +19115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:BL20">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16241,8 +19123,20 @@
         <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>"IF ISNUMBER"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I77">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -16263,8 +19157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16281,7 +19175,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -16731,8 +19625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showRuler="0" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17556,8 +20450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="117" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="117" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18164,6 +21058,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18172,7 +21067,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18380,19 +21275,29 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -18424,4 +21329,991 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Y18"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7">
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10" t="s">
+        <v>90</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13" t="s">
+        <v>125</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>9</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
+      </c>
+      <c r="X14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
+        <v>143</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15">
+        <v>8</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16">
+        <v>8</v>
+      </c>
+      <c r="V16">
+        <v>8</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>AVERAGE(A4:A16)</f>
+        <v>7.3076923076923075</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(D4:D16)</f>
+        <v>4.384615384615385</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(G4:G16)</f>
+        <v>6.5384615384615383</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(K4:K16)</f>
+        <v>2.6153846153846154</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGE(M4:M16)</f>
+        <v>4.6923076923076925</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(O4:O16)</f>
+        <v>4.384615384615385</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE(Q4:Q16)</f>
+        <v>4.615384615384615</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGE(T4:T16)</f>
+        <v>7.5384615384615383</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGE(V4:V16)</f>
+        <v>8.3076923076923084</v>
+      </c>
+      <c r="X18">
+        <f>AVERAGE(X4:X16)</f>
+        <v>8.8461538461538467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>